--- a/va_facility_data_2025-02-20/Longview VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Longview%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Longview VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Longview%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R92f237a3981a49f6862f0d46c35291a6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R42f0ac7e9bb643dbb51eebc4d0b69b70"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R81a857a2b54147a195d29c132ad3a836"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R75263bfb9b694bdbb9e14e9aeb6f85ea"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R10b0b00b63b6420d91ab1f990ed5edd6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R41b16e9016324c13ac01a7c831a0f679"/>
   </x:sheets>
 </x:workbook>
 </file>
